--- a/Analytics/E1/CrossBookings_e1.xlsx
+++ b/Analytics/E1/CrossBookings_e1.xlsx
@@ -172,7 +172,7 @@
     <t>SUM("TCrossBookings")</t>
   </si>
   <si>
-    <t>SUM("TCrossBookings") / 30</t>
+    <t>SUM("TCrossBookings") / 46</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>29700.0</v>
       </c>
       <c r="D2" t="n">
-        <v>990.0</v>
+        <v>645.6521739130435</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>27400.0</v>
       </c>
       <c r="D3" t="n">
-        <v>913.3333333333334</v>
+        <v>595.6521739130435</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +846,7 @@
         <v>26825.0</v>
       </c>
       <c r="D4" t="n">
-        <v>894.1666666666666</v>
+        <v>583.1521739130435</v>
       </c>
     </row>
     <row r="5">
@@ -860,7 +860,7 @@
         <v>25000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>833.3333333333334</v>
+        <v>543.4782608695652</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +874,7 @@
         <v>24850.0</v>
       </c>
       <c r="D6" t="n">
-        <v>828.3333333333334</v>
+        <v>540.2173913043479</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>24700.0</v>
       </c>
       <c r="D7" t="n">
-        <v>823.3333333333334</v>
+        <v>536.9565217391304</v>
       </c>
     </row>
     <row r="8">
@@ -902,7 +902,7 @@
         <v>24225.0</v>
       </c>
       <c r="D8" t="n">
-        <v>807.5</v>
+        <v>526.6304347826087</v>
       </c>
     </row>
     <row r="9">
@@ -916,7 +916,7 @@
         <v>23800.0</v>
       </c>
       <c r="D9" t="n">
-        <v>793.3333333333334</v>
+        <v>517.3913043478261</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>23750.0</v>
       </c>
       <c r="D10" t="n">
-        <v>791.6666666666666</v>
+        <v>516.304347826087</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +944,7 @@
         <v>23675.0</v>
       </c>
       <c r="D11" t="n">
-        <v>789.1666666666666</v>
+        <v>514.6739130434783</v>
       </c>
     </row>
     <row r="12">
@@ -958,7 +958,7 @@
         <v>23200.0</v>
       </c>
       <c r="D12" t="n">
-        <v>773.3333333333334</v>
+        <v>504.3478260869565</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>23050.0</v>
       </c>
       <c r="D13" t="n">
-        <v>768.3333333333334</v>
+        <v>501.0869565217391</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>22575.0</v>
       </c>
       <c r="D14" t="n">
-        <v>752.5</v>
+        <v>490.7608695652174</v>
       </c>
     </row>
     <row r="15">
@@ -1000,7 +1000,7 @@
         <v>20850.0</v>
       </c>
       <c r="D15" t="n">
-        <v>695.0</v>
+        <v>453.2608695652174</v>
       </c>
     </row>
     <row r="16">
@@ -1014,7 +1014,7 @@
         <v>19500.0</v>
       </c>
       <c r="D16" t="n">
-        <v>650.0</v>
+        <v>423.9130434782609</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1028,7 @@
         <v>19000.0</v>
       </c>
       <c r="D17" t="n">
-        <v>633.3333333333334</v>
+        <v>413.04347826086956</v>
       </c>
     </row>
     <row r="18">
@@ -1042,7 +1042,7 @@
         <v>18300.0</v>
       </c>
       <c r="D18" t="n">
-        <v>610.0</v>
+        <v>397.82608695652175</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1056,7 @@
         <v>17800.0</v>
       </c>
       <c r="D19" t="n">
-        <v>593.3333333333334</v>
+        <v>386.95652173913044</v>
       </c>
     </row>
     <row r="20">
@@ -1070,7 +1070,7 @@
         <v>17450.0</v>
       </c>
       <c r="D20" t="n">
-        <v>581.6666666666666</v>
+        <v>379.3478260869565</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         <v>17400.0</v>
       </c>
       <c r="D21" t="n">
-        <v>580.0</v>
+        <v>378.2608695652174</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>16550.0</v>
       </c>
       <c r="D22" t="n">
-        <v>551.6666666666666</v>
+        <v>359.7826086956522</v>
       </c>
     </row>
     <row r="23">
@@ -1112,7 +1112,7 @@
         <v>14650.0</v>
       </c>
       <c r="D23" t="n">
-        <v>488.3333333333333</v>
+        <v>318.4782608695652</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1126,7 @@
         <v>14300.0</v>
       </c>
       <c r="D24" t="n">
-        <v>476.6666666666667</v>
+        <v>310.8695652173913</v>
       </c>
     </row>
     <row r="25">
@@ -1140,7 +1140,7 @@
         <v>14050.0</v>
       </c>
       <c r="D25" t="n">
-        <v>468.3333333333333</v>
+        <v>305.4347826086956</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/CrossBookings_e1.xlsx
+++ b/Analytics/E1/CrossBookings_e1.xlsx
@@ -94,76 +94,76 @@
     <t>24</t>
   </si>
   <si>
-    <t>Southampton</t>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
   </si>
   <si>
     <t>Sheffield Weds</t>
   </si>
   <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>QPR</t>
+    <t>Hull</t>
   </si>
   <si>
     <t>Blackburn</t>
   </si>
   <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
+    <t>Derby</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -240,7 +240,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>15550.0</v>
+        <v>6825.0</v>
       </c>
     </row>
     <row r="3">
@@ -251,7 +251,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>15000.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="4">
@@ -262,7 +262,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>14250.0</v>
+        <v>5150.0</v>
       </c>
     </row>
     <row r="5">
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>14250.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>14100.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>12400.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>12200.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>11500.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>11300.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>11300.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>11275.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>10750.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>10375.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>10050.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>9950.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>9950.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>9400.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="19">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>8750.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>8500.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>8350.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>8250.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>6850.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>6800.0</v>
+        <v>2450.0</v>
       </c>
     </row>
     <row r="25">
@@ -493,7 +493,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>5200.0</v>
+        <v>2000.0</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>18200.0</v>
+        <v>11325.0</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>15050.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>13400.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>13100.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>12400.0</v>
+        <v>4250.0</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>12200.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>12025.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>11850.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>11825.0</v>
+        <v>3850.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>11400.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>10750.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>9550.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>9500.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>9450.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>9200.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="17">
@@ -691,7 +691,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>9100.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>8950.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>8950.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>8900.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>8900.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>8750.0</v>
+        <v>2650.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
-        <v>7850.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="24">
@@ -765,10 +765,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>7800.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="25">
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>7200.0</v>
+        <v>2100.0</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>29700.0</v>
+        <v>13775.0</v>
       </c>
       <c r="D2" t="n">
-        <v>645.6521739130435</v>
+        <v>299.45652173913044</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>27400.0</v>
+        <v>10400.0</v>
       </c>
       <c r="D3" t="n">
-        <v>595.6521739130435</v>
+        <v>226.08695652173913</v>
       </c>
     </row>
     <row r="4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>26825.0</v>
+        <v>10125.0</v>
       </c>
       <c r="D4" t="n">
-        <v>583.1521739130435</v>
+        <v>220.1086956521739</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>25000.0</v>
+        <v>9250.0</v>
       </c>
       <c r="D5" t="n">
-        <v>543.4782608695652</v>
+        <v>201.08695652173913</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>24850.0</v>
+        <v>9050.0</v>
       </c>
       <c r="D6" t="n">
-        <v>540.2173913043479</v>
+        <v>196.7391304347826</v>
       </c>
     </row>
     <row r="7">
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>24700.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D7" t="n">
-        <v>536.9565217391304</v>
+        <v>189.1304347826087</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>24225.0</v>
+        <v>8500.0</v>
       </c>
       <c r="D8" t="n">
-        <v>526.6304347826087</v>
+        <v>184.7826086956522</v>
       </c>
     </row>
     <row r="9">
@@ -913,10 +913,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>23800.0</v>
+        <v>8450.0</v>
       </c>
       <c r="D9" t="n">
-        <v>517.3913043478261</v>
+        <v>183.69565217391303</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>23750.0</v>
+        <v>7900.0</v>
       </c>
       <c r="D10" t="n">
-        <v>516.304347826087</v>
+        <v>171.7391304347826</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>23675.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D11" t="n">
-        <v>514.6739130434783</v>
+        <v>164.1304347826087</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>23200.0</v>
+        <v>7450.0</v>
       </c>
       <c r="D12" t="n">
-        <v>504.3478260869565</v>
+        <v>161.95652173913044</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>23050.0</v>
+        <v>7300.0</v>
       </c>
       <c r="D13" t="n">
-        <v>501.0869565217391</v>
+        <v>158.69565217391303</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>22575.0</v>
+        <v>7150.0</v>
       </c>
       <c r="D14" t="n">
-        <v>490.7608695652174</v>
+        <v>155.43478260869566</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>20850.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D15" t="n">
-        <v>453.2608695652174</v>
+        <v>152.17391304347825</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>19500.0</v>
+        <v>6650.0</v>
       </c>
       <c r="D16" t="n">
-        <v>423.9130434782609</v>
+        <v>144.56521739130434</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>19000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D17" t="n">
-        <v>413.04347826086956</v>
+        <v>130.43478260869566</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>18300.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D18" t="n">
-        <v>397.82608695652175</v>
+        <v>128.2608695652174</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>17800.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D19" t="n">
-        <v>386.95652173913044</v>
+        <v>123.91304347826087</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>17450.0</v>
+        <v>5550.0</v>
       </c>
       <c r="D20" t="n">
-        <v>379.3478260869565</v>
+        <v>120.65217391304348</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>17400.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D21" t="n">
-        <v>378.2608695652174</v>
+        <v>119.56521739130434</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>16550.0</v>
+        <v>5150.0</v>
       </c>
       <c r="D22" t="n">
-        <v>359.7826086956522</v>
+        <v>111.95652173913044</v>
       </c>
     </row>
     <row r="23">
@@ -1106,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>14650.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D23" t="n">
-        <v>318.4782608695652</v>
+        <v>108.69565217391305</v>
       </c>
     </row>
     <row r="24">
@@ -1120,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>14300.0</v>
+        <v>4900.0</v>
       </c>
       <c r="D24" t="n">
-        <v>310.8695652173913</v>
+        <v>106.52173913043478</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>14050.0</v>
+        <v>3650.0</v>
       </c>
       <c r="D25" t="n">
-        <v>305.4347826086956</v>
+        <v>79.34782608695652</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/CrossBookings_e1.xlsx
+++ b/Analytics/E1/CrossBookings_e1.xlsx
@@ -103,36 +103,36 @@
     <t>Norwich</t>
   </si>
   <si>
+    <t>Burnley</t>
+  </si>
+  <si>
     <t>Luton</t>
   </si>
   <si>
-    <t>Burnley</t>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
   </si>
   <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
     <t>Coventry</t>
   </si>
   <si>
     <t>West Brom</t>
   </si>
   <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
+    <t>Leeds</t>
   </si>
   <si>
     <t>Cardiff</t>
   </si>
   <si>
-    <t>Leeds</t>
-  </si>
-  <si>
     <t>Millwall</t>
   </si>
   <si>
@@ -145,6 +145,12 @@
     <t>QPR</t>
   </si>
   <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
     <t>Bristol City</t>
   </si>
   <si>
@@ -152,12 +158,6 @@
   </si>
   <si>
     <t>Oxford</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Hull</t>
   </si>
   <si>
     <t>Blackburn</t>
@@ -251,7 +251,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>5750.0</v>
+        <v>6150.0</v>
       </c>
     </row>
     <row r="4">
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>5000.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>4800.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>4600.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>4600.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>4400.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>4300.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>3900.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>3650.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>3450.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>2600.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>2600.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>2500.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>2500.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="23">
@@ -493,7 +493,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>2000.0</v>
+        <v>2400.0</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>5600.0</v>
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>4600.0</v>
+        <v>4650.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>4500.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>4250.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>4100.0</v>
+        <v>4250.0</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>4000.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>3900.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>3850.0</v>
+        <v>3950.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>3650.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>3600.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>3300.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>3300.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>3300.0</v>
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>3200.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>3000.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
-        <v>2950.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="19">
@@ -713,7 +713,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>2950.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>2750.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>2700.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>2650.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" t="n">
-        <v>2300.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="24">
@@ -768,7 +768,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>2250.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="25">
@@ -779,7 +779,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>2100.0</v>
+        <v>2500.0</v>
       </c>
     </row>
   </sheetData>
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>10400.0</v>
+        <v>10700.0</v>
       </c>
       <c r="D3" t="n">
-        <v>226.08695652173913</v>
+        <v>232.6086956521739</v>
       </c>
     </row>
     <row r="4">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>9250.0</v>
+        <v>9650.0</v>
       </c>
       <c r="D5" t="n">
-        <v>201.08695652173913</v>
+        <v>209.7826086956522</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>9050.0</v>
+        <v>9500.0</v>
       </c>
       <c r="D6" t="n">
-        <v>196.7391304347826</v>
+        <v>206.52173913043478</v>
       </c>
     </row>
     <row r="7">
@@ -885,10 +885,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>8700.0</v>
+        <v>9100.0</v>
       </c>
       <c r="D7" t="n">
-        <v>189.1304347826087</v>
+        <v>197.82608695652175</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>8500.0</v>
+        <v>9050.0</v>
       </c>
       <c r="D8" t="n">
-        <v>184.7826086956522</v>
+        <v>196.7391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>8450.0</v>
+        <v>8850.0</v>
       </c>
       <c r="D9" t="n">
-        <v>183.69565217391303</v>
+        <v>192.3913043478261</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>7900.0</v>
+        <v>8500.0</v>
       </c>
       <c r="D10" t="n">
-        <v>171.7391304347826</v>
+        <v>184.7826086956522</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>7550.0</v>
+        <v>8350.0</v>
       </c>
       <c r="D11" t="n">
-        <v>164.1304347826087</v>
+        <v>181.52173913043478</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>7450.0</v>
+        <v>8100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>161.95652173913044</v>
+        <v>176.08695652173913</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>7300.0</v>
+        <v>7750.0</v>
       </c>
       <c r="D13" t="n">
-        <v>158.69565217391303</v>
+        <v>168.47826086956522</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>7150.0</v>
+        <v>7600.0</v>
       </c>
       <c r="D14" t="n">
-        <v>155.43478260869566</v>
+        <v>165.2173913043478</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>7000.0</v>
+        <v>7450.0</v>
       </c>
       <c r="D15" t="n">
-        <v>152.17391304347825</v>
+        <v>161.95652173913044</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>6650.0</v>
+        <v>7400.0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.56521739130434</v>
+        <v>160.8695652173913</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>6000.0</v>
+        <v>6650.0</v>
       </c>
       <c r="D17" t="n">
-        <v>130.43478260869566</v>
+        <v>144.56521739130434</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>5900.0</v>
+        <v>6200.0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.2608695652174</v>
+        <v>134.7826086956522</v>
       </c>
     </row>
     <row r="19">
@@ -1053,10 +1053,10 @@
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>5700.0</v>
+        <v>6150.0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.91304347826087</v>
+        <v>133.69565217391303</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>5550.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D20" t="n">
-        <v>120.65217391304348</v>
+        <v>128.2608695652174</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>5500.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D21" t="n">
-        <v>119.56521739130434</v>
+        <v>128.2608695652174</v>
       </c>
     </row>
     <row r="22">
@@ -1095,10 +1095,10 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>5150.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D22" t="n">
-        <v>111.95652173913044</v>
+        <v>128.2608695652174</v>
       </c>
     </row>
     <row r="23">
@@ -1106,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>5000.0</v>
+        <v>5850.0</v>
       </c>
       <c r="D23" t="n">
-        <v>108.69565217391305</v>
+        <v>127.17391304347827</v>
       </c>
     </row>
     <row r="24">
@@ -1120,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>4900.0</v>
+        <v>5400.0</v>
       </c>
       <c r="D24" t="n">
-        <v>106.52173913043478</v>
+        <v>117.3913043478261</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>3650.0</v>
+        <v>2600.0</v>
       </c>
       <c r="D25" t="n">
-        <v>79.34782608695652</v>
+        <v>56.52173913043478</v>
       </c>
     </row>
   </sheetData>
